--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEVADA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEVADA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1381"/>
+  <dimension ref="A1:D1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C57">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C64">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C97">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C118">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C124">
@@ -2159,7 +2159,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C136">
@@ -2333,7 +2333,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C149">
@@ -2359,7 +2359,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C155">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C170">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C184">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C194">
@@ -3032,12 +3032,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C202">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C211">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C216">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C222">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C229">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C239">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C248">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C257">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C267">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C273">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C275">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C289">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C296">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C308">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C312">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C314">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C316">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C317">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C322">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C331">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C336">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C342">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C348">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C352">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C366">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C378">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C384">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C389">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C398">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C405">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C409">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C411">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C413">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C425">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C427">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C432">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C433">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C437">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C439">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C441">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C448">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C449">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C453">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C458">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C463">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C465">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C467">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C473">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C481">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C489">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C497">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C498">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C502">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C508">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C516">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C522">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C525">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C530">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C532">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C536">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C543">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C547">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C558">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C560">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C565">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C569">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C570">
@@ -8184,7 +8184,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C596">
@@ -8210,7 +8210,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C598">
@@ -9003,7 +9003,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C659">
@@ -9411,7 +9411,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C690">
@@ -9450,7 +9450,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C693">
@@ -9528,7 +9528,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C699">
@@ -9541,7 +9541,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C700">
@@ -9645,7 +9645,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C708">
@@ -9702,7 +9702,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C712">
@@ -9715,7 +9715,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C713">
@@ -9767,7 +9767,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C717">
@@ -9858,7 +9858,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C724">
@@ -10019,7 +10019,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C736">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C744">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C746">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C754">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C762">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C763">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C770">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C771">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C777">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C779">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C784">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C792">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C796">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C803">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C819">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C822">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C844">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C858">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C861">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C867">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C873">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C888">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C897">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C901">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C903">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C906">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C909">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C911">
@@ -12312,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C912">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C931">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C948">
@@ -12798,7 +12798,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C949">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C958">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C959">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C965">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C973">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C980">
@@ -13292,7 +13292,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C987">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C995">
@@ -13422,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C997">
@@ -13435,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C998">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1004">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1011">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1012">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1017">
@@ -13708,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1019">
@@ -13773,7 +13773,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1024">
@@ -13942,7 +13942,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1037">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1048">
@@ -14103,7 +14103,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1049">
@@ -14155,7 +14155,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1053">
@@ -14181,7 +14181,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1055">
@@ -14220,7 +14220,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1058">
@@ -14386,7 +14386,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1070">
@@ -14529,7 +14529,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1081">
@@ -14594,7 +14594,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1086">
@@ -14607,7 +14607,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1087">
@@ -15202,7 +15202,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1132">
@@ -15467,7 +15467,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1152">
@@ -15828,7 +15828,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1179">
@@ -15854,7 +15854,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1181">
@@ -15880,7 +15880,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1183">
@@ -15906,7 +15906,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1185">
@@ -15919,7 +15919,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1186">
@@ -15958,7 +15958,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1189">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1198">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1201">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1206">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1209">
@@ -16327,7 +16327,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1217">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1229">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1230">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1231">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1234">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1235">
@@ -16691,7 +16691,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1245">
@@ -16743,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1249">
@@ -16756,7 +16756,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1250">
@@ -16912,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1262">
@@ -16925,7 +16925,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1263">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1266">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1274">
@@ -17107,7 +17107,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1277">
@@ -17445,7 +17445,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1303">
@@ -17554,7 +17554,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C1311">
@@ -17793,7 +17793,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1329">
@@ -17819,7 +17819,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1331">
@@ -17949,7 +17949,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1341">
@@ -18027,7 +18027,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1347">
@@ -18079,7 +18079,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1351">
@@ -18092,7 +18092,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1352">
@@ -18105,7 +18105,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1353">
@@ -18235,7 +18235,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1363">
@@ -18248,7 +18248,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1364">
@@ -18261,7 +18261,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1365">
@@ -18300,7 +18300,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1368">
@@ -18399,41 +18399,6 @@
       </c>
       <c r="D1375">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
